--- a/MejorGasto_RawData_2022-02-17.xlsx
+++ b/MejorGasto_RawData_2022-02-17.xlsx
@@ -46,7 +46,7 @@
     <t>var7</t>
   </si>
   <si>
-    <t>var_multiple_6_salida_2_suma</t>
+    <t>var_multiple_6_salida_2_s</t>
   </si>
   <si>
     <t>var_multiple_6_salida_3_recuento</t>
